--- a/data/trans_orig/P6715-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6715-Edad-trans_orig.xlsx
@@ -745,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5790</v>
+        <v>4371</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01268057179267895</v>
@@ -754,7 +754,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06988810158256301</v>
+        <v>0.05275929348945374</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4753</v>
+        <v>5055</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01084949448585481</v>
@@ -775,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05474751265818534</v>
+        <v>0.05822818746769882</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -787,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>6703</v>
+        <v>7237</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01174361397710033</v>
@@ -796,7 +796,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03950822887654928</v>
+        <v>0.04265173275265115</v>
       </c>
     </row>
     <row r="5">
@@ -816,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6775</v>
+        <v>6429</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02269282596884101</v>
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.08177477670440929</v>
+        <v>0.0775938734306847</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>3</v>
@@ -834,19 +834,19 @@
         <v>3216</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>8578</v>
+        <v>8567</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03703950895788908</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01108258090216905</v>
+        <v>0.01105061023477854</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.09880569148328698</v>
+        <v>0.09866973976205073</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>5</v>
@@ -855,19 +855,19 @@
         <v>5096</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1904</v>
+        <v>1907</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>11718</v>
+        <v>11456</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03003398884826737</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01122431125341942</v>
+        <v>0.01124183257741288</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.06906054495228069</v>
+        <v>0.06751747817143473</v>
       </c>
     </row>
     <row r="6">
@@ -884,19 +884,19 @@
         <v>11962</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5933</v>
+        <v>6280</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>19561</v>
+        <v>19566</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1443823024318253</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.07160746855321394</v>
+        <v>0.07580264844942139</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2360935906621923</v>
+        <v>0.2361633847051321</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>10</v>
@@ -905,19 +905,19 @@
         <v>9702</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>4887</v>
+        <v>4835</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>16637</v>
+        <v>16669</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1117436780473649</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.05628739668837077</v>
+        <v>0.05568590392795774</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1916309593793908</v>
+        <v>0.1919974189338025</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>22</v>
@@ -926,19 +926,19 @@
         <v>21664</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>14086</v>
+        <v>13288</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>30520</v>
+        <v>30646</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1276811975179125</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.08302124118567072</v>
+        <v>0.07831416351781099</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1798761680060586</v>
+        <v>0.1806208424695066</v>
       </c>
     </row>
     <row r="7">
@@ -955,19 +955,19 @@
         <v>22859</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>15048</v>
+        <v>15087</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>31728</v>
+        <v>32001</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2759041393798164</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1816219221253329</v>
+        <v>0.182092581502277</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3829581240856619</v>
+        <v>0.3862519713974207</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>20</v>
@@ -976,19 +976,19 @@
         <v>19836</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>13423</v>
+        <v>12965</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>28024</v>
+        <v>27887</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2284744428223009</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1546023049936329</v>
+        <v>0.1493268996122306</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3227874703620816</v>
+        <v>0.3212028839666015</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>42</v>
@@ -997,19 +997,19 @@
         <v>42695</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>32083</v>
+        <v>32460</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>54366</v>
+        <v>54280</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2516344787191405</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1890913397592368</v>
+        <v>0.1913133138281613</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3204172685979029</v>
+        <v>0.3199132657203084</v>
       </c>
     </row>
     <row r="8">
@@ -1026,19 +1026,19 @@
         <v>45099</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>35265</v>
+        <v>35981</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>54595</v>
+        <v>53993</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5443401604268383</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4256461404874158</v>
+        <v>0.434283986031088</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.658949075147428</v>
+        <v>0.6516863195454391</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>51</v>
@@ -1047,19 +1047,19 @@
         <v>53125</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>44946</v>
+        <v>43972</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>61399</v>
+        <v>61948</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6118928756865903</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5176887895749683</v>
+        <v>0.5064787477701864</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7071943174848336</v>
+        <v>0.713517060528722</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>92</v>
@@ -1068,19 +1068,19 @@
         <v>98224</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>84919</v>
+        <v>84888</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>111911</v>
+        <v>110481</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5789067209375794</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5004947238766704</v>
+        <v>0.5003109265922641</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6595736243470598</v>
+        <v>0.6511504876955639</v>
       </c>
     </row>
     <row r="9">
@@ -1175,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7120</v>
+        <v>6181</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.005327615224730077</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01855769208901995</v>
+        <v>0.01611045754079857</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>7123</v>
+        <v>7078</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.007696349102910145</v>
@@ -1205,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02581210439427518</v>
+        <v>0.02565069278722721</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>4</v>
@@ -1214,19 +1214,19 @@
         <v>4168</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1080</v>
+        <v>1020</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>9834</v>
+        <v>9862</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.006318552184312685</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.001638036666177193</v>
+        <v>0.001545675131066341</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01490903313530756</v>
+        <v>0.01495063233009859</v>
       </c>
     </row>
     <row r="11">
@@ -1243,19 +1243,19 @@
         <v>11016</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>5673</v>
+        <v>5172</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>21862</v>
+        <v>20516</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02871104828020256</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01478697283831508</v>
+        <v>0.01347948608821596</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.05698045641217647</v>
+        <v>0.05347398837761787</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>5</v>
@@ -1264,19 +1264,19 @@
         <v>5486</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>2031</v>
+        <v>1988</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>11010</v>
+        <v>11782</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01987944347139303</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.007359387693515499</v>
+        <v>0.007206042599908953</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.039900966586129</v>
+        <v>0.0426986042686569</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>15</v>
@@ -1285,19 +1285,19 @@
         <v>16501</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>9962</v>
+        <v>8964</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>26761</v>
+        <v>27171</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02501643163369231</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.0151030117800367</v>
+        <v>0.01358929244064165</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.04057120685175077</v>
+        <v>0.04119294387442102</v>
       </c>
     </row>
     <row r="12">
@@ -1314,19 +1314,19 @@
         <v>43759</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>31780</v>
+        <v>32075</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>57715</v>
+        <v>56978</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1140535546626887</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.08283174573131667</v>
+        <v>0.08360000543961187</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.150428645408413</v>
+        <v>0.1485068691759113</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>43</v>
@@ -1335,19 +1335,19 @@
         <v>45733</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>34085</v>
+        <v>34151</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>59949</v>
+        <v>60382</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1657334689224985</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1235231328873978</v>
+        <v>0.1237597689378391</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2172511376452376</v>
+        <v>0.218821273948086</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>86</v>
@@ -1356,19 +1356,19 @@
         <v>89492</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>72965</v>
+        <v>73386</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>110369</v>
+        <v>109905</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1356733480805345</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1106173277941163</v>
+        <v>0.1112562248590487</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1673231713664596</v>
+        <v>0.1666197801081009</v>
       </c>
     </row>
     <row r="13">
@@ -1385,19 +1385,19 @@
         <v>80581</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>64700</v>
+        <v>65271</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>96091</v>
+        <v>96411</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2100263753176377</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1686328660600059</v>
+        <v>0.1701225141433432</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2504506497445608</v>
+        <v>0.2512859961378043</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>62</v>
@@ -1406,19 +1406,19 @@
         <v>64234</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>51245</v>
+        <v>51709</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>79791</v>
+        <v>78594</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2327776622873451</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1857091877967534</v>
+        <v>0.1873908839471321</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2891576339800525</v>
+        <v>0.2848176751646438</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>142</v>
@@ -1427,19 +1427,19 @@
         <v>144815</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>121983</v>
+        <v>124947</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>167142</v>
+        <v>169846</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.219544156670803</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1849302452854438</v>
+        <v>0.1894238851155018</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2533934750400567</v>
+        <v>0.2574933313526626</v>
       </c>
     </row>
     <row r="14">
@@ -1456,19 +1456,19 @@
         <v>246272</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>226702</v>
+        <v>228120</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>264260</v>
+        <v>265204</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.641881406514741</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5908757245097679</v>
+        <v>0.5945712784457425</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6887645533141837</v>
+        <v>0.691225045167594</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>145</v>
@@ -1477,19 +1477,19 @@
         <v>158368</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>141019</v>
+        <v>142706</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>175589</v>
+        <v>175409</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5739130762158533</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5110425633295066</v>
+        <v>0.5171563958541816</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6363206669806782</v>
+        <v>0.6356706222026912</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>379</v>
@@ -1498,19 +1498,19 @@
         <v>404639</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>378131</v>
+        <v>379731</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>429979</v>
+        <v>430205</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6134475114306575</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5732605315045581</v>
+        <v>0.5756858993882711</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6518629908721782</v>
+        <v>0.6522056088998361</v>
       </c>
     </row>
     <row r="15">
@@ -1605,7 +1605,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7488</v>
+        <v>8217</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.004956742710617332</v>
@@ -1614,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01761145463343585</v>
+        <v>0.01932422959813338</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5507</v>
+        <v>5447</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.003449569027373642</v>
@@ -1635,7 +1635,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01926657299763746</v>
+        <v>0.01905906433088755</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3</v>
@@ -1644,19 +1644,19 @@
         <v>3094</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>893</v>
+        <v>896</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>9146</v>
+        <v>8907</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.004350881897993323</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.001256206444066089</v>
+        <v>0.001260457061139099</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0128635151342658</v>
+        <v>0.01252696818952741</v>
       </c>
     </row>
     <row r="17">
@@ -1673,19 +1673,19 @@
         <v>6704</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2873</v>
+        <v>2821</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>13378</v>
+        <v>13582</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01576576993664994</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.006756359173825627</v>
+        <v>0.00663394497187979</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.0314624928176179</v>
+        <v>0.03194360942497576</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>8</v>
@@ -1694,19 +1694,19 @@
         <v>8624</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>4291</v>
+        <v>3683</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>16439</v>
+        <v>15843</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.03017133571598581</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01501224848767461</v>
+        <v>0.01288648720621039</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.05751547681413942</v>
+        <v>0.05542932806521528</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>15</v>
@@ -1715,19 +1715,19 @@
         <v>15327</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>8459</v>
+        <v>9284</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>24874</v>
+        <v>26224</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02155658746910143</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01189726866549851</v>
+        <v>0.01305782344731498</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.03498375361772701</v>
+        <v>0.03688199921614373</v>
       </c>
     </row>
     <row r="18">
@@ -1744,19 +1744,19 @@
         <v>58681</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>44484</v>
+        <v>44067</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>74923</v>
+        <v>75569</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1380089700748421</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1046199770994284</v>
+        <v>0.1036395876768819</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1762071990239565</v>
+        <v>0.177726219913594</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>41</v>
@@ -1765,19 +1765,19 @@
         <v>41836</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>30434</v>
+        <v>30663</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>55487</v>
+        <v>55223</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1463726855174758</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1064799755713516</v>
+        <v>0.1072817975083341</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1941325430579772</v>
+        <v>0.1932117336888643</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>96</v>
@@ -1786,19 +1786,19 @@
         <v>100517</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>83282</v>
+        <v>82158</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>122918</v>
+        <v>118574</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1413710560049284</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1171303473814032</v>
+        <v>0.1155494448115604</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1728760002081871</v>
+        <v>0.1667669539029936</v>
       </c>
     </row>
     <row r="19">
@@ -1815,19 +1815,19 @@
         <v>95569</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>78214</v>
+        <v>78815</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>112878</v>
+        <v>113940</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2247623000150719</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1839466692793661</v>
+        <v>0.1853609152626181</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2654716863764692</v>
+        <v>0.2679693677905167</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>66</v>
@@ -1836,19 +1836,19 @@
         <v>67281</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>52658</v>
+        <v>52248</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>83646</v>
+        <v>82422</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2353977517579034</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1842371271213333</v>
+        <v>0.1828024774388792</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2926564109629426</v>
+        <v>0.2883733826520399</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>159</v>
@@ -1857,19 +1857,19 @@
         <v>162850</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>140934</v>
+        <v>139615</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>184728</v>
+        <v>186612</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2290375892582251</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1982146056153283</v>
+        <v>0.1963601117160325</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2598075517830309</v>
+        <v>0.2624574191120054</v>
       </c>
     </row>
     <row r="20">
@@ -1886,19 +1886,19 @@
         <v>262138</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>242737</v>
+        <v>241074</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>282277</v>
+        <v>283063</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6165062172628187</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5708780997442662</v>
+        <v>0.5669677913040773</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6638696709547659</v>
+        <v>0.6657184229971026</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>157</v>
@@ -1907,19 +1907,19 @@
         <v>167092</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>149538</v>
+        <v>150841</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>182638</v>
+        <v>184009</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5846086579812613</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5231918161978855</v>
+        <v>0.5277521501692978</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6390014440969427</v>
+        <v>0.6437973231492911</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>410</v>
@@ -1928,19 +1928,19 @@
         <v>429230</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>401470</v>
+        <v>403331</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>454193</v>
+        <v>456693</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6036838853697517</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5646413764972711</v>
+        <v>0.5672588040253947</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.638793292678696</v>
+        <v>0.6423090083475773</v>
       </c>
     </row>
     <row r="21">
@@ -2035,7 +2035,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>5207</v>
+        <v>6136</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.002848638356089741</v>
@@ -2044,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01416338103765266</v>
+        <v>0.01668943645063409</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2</v>
@@ -2056,7 +2056,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>6457</v>
+        <v>6525</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0095072494269949</v>
@@ -2065,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02889819689397429</v>
+        <v>0.02920401971252085</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>3</v>
@@ -2074,19 +2074,19 @@
         <v>3171</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>9453</v>
+        <v>8616</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.005365517113367922</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.001754471819086651</v>
+        <v>0.001746457812950257</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01599175553523899</v>
+        <v>0.01457690818001917</v>
       </c>
     </row>
     <row r="23">
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>6652</v>
+        <v>7179</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.003628764846146659</v>
@@ -2115,7 +2115,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.01809239356953709</v>
+        <v>0.01952493482381313</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3</v>
@@ -2124,19 +2124,19 @@
         <v>3063</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>970</v>
+        <v>977</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>8339</v>
+        <v>8380</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.01371139254737721</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.004341052918885119</v>
+        <v>0.00437485826220681</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.03732567881458451</v>
+        <v>0.03750831599177068</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>4</v>
@@ -2145,19 +2145,19 @@
         <v>4398</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1318</v>
+        <v>1046</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>10588</v>
+        <v>10978</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.007439882691676873</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.002229454226137951</v>
+        <v>0.001770056425340541</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01791218182558788</v>
+        <v>0.01857254892053362</v>
       </c>
     </row>
     <row r="24">
@@ -2174,19 +2174,19 @@
         <v>30379</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>20470</v>
+        <v>20656</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>43209</v>
+        <v>43001</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.08262782766444261</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.05567587591226181</v>
+        <v>0.05618293560225718</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1175228411153341</v>
+        <v>0.1169577508481843</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>26</v>
@@ -2195,19 +2195,19 @@
         <v>30310</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>20712</v>
+        <v>21181</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>43678</v>
+        <v>42540</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1356635570643041</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.09270452972032939</v>
+        <v>0.09480171572737882</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1954930260553409</v>
+        <v>0.1904016289857218</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>54</v>
@@ -2216,19 +2216,19 @@
         <v>60690</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>47866</v>
+        <v>46867</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>79406</v>
+        <v>78546</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1026747262265957</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.08098033386023279</v>
+        <v>0.07928927431463065</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1343393626910935</v>
+        <v>0.1328844484282781</v>
       </c>
     </row>
     <row r="25">
@@ -2245,19 +2245,19 @@
         <v>85514</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>70027</v>
+        <v>69319</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>102883</v>
+        <v>104284</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2325873170052216</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1904648319732698</v>
+        <v>0.1885383647113665</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2798290240048922</v>
+        <v>0.2836404461118152</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>42</v>
@@ -2266,19 +2266,19 @@
         <v>50462</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>37423</v>
+        <v>38195</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>65614</v>
+        <v>65023</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2258580841334658</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1674998571820564</v>
+        <v>0.1709540898082351</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2936741972850134</v>
+        <v>0.2910279389197414</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>119</v>
@@ -2287,19 +2287,19 @@
         <v>135976</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>114371</v>
+        <v>115330</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>157933</v>
+        <v>159332</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2300437440156976</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1934924763993028</v>
+        <v>0.1951158905428163</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2671911847768019</v>
+        <v>0.2695583078131999</v>
       </c>
     </row>
     <row r="26">
@@ -2316,19 +2316,19 @@
         <v>249389</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>229858</v>
+        <v>229911</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>265226</v>
+        <v>269754</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6783074521280994</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6251875299962578</v>
+        <v>0.6253313671817766</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7213847382044508</v>
+        <v>0.7336994051942703</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>119</v>
@@ -2337,19 +2337,19 @@
         <v>137464</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>120684</v>
+        <v>122501</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>153003</v>
+        <v>152690</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6152597168278581</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5401568361562152</v>
+        <v>0.5482873399298962</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6848079502033321</v>
+        <v>0.6834107979092894</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>338</v>
@@ -2358,19 +2358,19 @@
         <v>386852</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>359411</v>
+        <v>360315</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>409288</v>
+        <v>410171</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6544761299526619</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6080511044862391</v>
+        <v>0.6095796859370922</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6924321443522181</v>
+        <v>0.6939259928230005</v>
       </c>
     </row>
     <row r="27">
@@ -2512,7 +2512,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>5239</v>
+        <v>5209</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.006587126837748915</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.03329815366559636</v>
+        <v>0.03310253062025914</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>0</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>5233</v>
+        <v>5160</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.004565202603822133</v>
@@ -2555,7 +2555,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.02304849472689521</v>
+        <v>0.02272830632723599</v>
       </c>
     </row>
     <row r="30">
@@ -2572,19 +2572,19 @@
         <v>18905</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>11771</v>
+        <v>11450</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>28337</v>
+        <v>29044</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1201459238078273</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.07480538871916774</v>
+        <v>0.07276411457654706</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.180090854901311</v>
+        <v>0.184577947616026</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>11</v>
@@ -2593,19 +2593,19 @@
         <v>13608</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>7214</v>
+        <v>7628</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>23636</v>
+        <v>22639</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1952582777628712</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1035166174036375</v>
+        <v>0.1094490015406743</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3391545900017061</v>
+        <v>0.3248499010233616</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>28</v>
@@ -2614,19 +2614,19 @@
         <v>32513</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>22230</v>
+        <v>23297</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>45320</v>
+        <v>44920</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1432017252930299</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.09791328943350648</v>
+        <v>0.1026118949862508</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1996119237450424</v>
+        <v>0.1978482831890067</v>
       </c>
     </row>
     <row r="31">
@@ -2643,19 +2643,19 @@
         <v>29031</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>19705</v>
+        <v>19328</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>38546</v>
+        <v>39691</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1844960413390392</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1252278051352707</v>
+        <v>0.1228350467442213</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2449686114148744</v>
+        <v>0.2522461059812592</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>13</v>
@@ -2664,19 +2664,19 @@
         <v>13795</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>7408</v>
+        <v>7606</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>21100</v>
+        <v>21715</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1979497108767056</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1062992229668932</v>
+        <v>0.1091445473397915</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3027583061545892</v>
+        <v>0.3115935423462014</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>40</v>
@@ -2685,19 +2685,19 @@
         <v>42826</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>32451</v>
+        <v>31448</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>56590</v>
+        <v>55328</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1886256567454956</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1429295756922546</v>
+        <v>0.1385102834476603</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2492499507903929</v>
+        <v>0.2436918173574075</v>
       </c>
     </row>
     <row r="32">
@@ -2714,19 +2714,19 @@
         <v>108379</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>95915</v>
+        <v>94710</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>119138</v>
+        <v>120060</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.6887709080153847</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.6095604204160763</v>
+        <v>0.6019020551268341</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.7571483827566727</v>
+        <v>0.7630066653034255</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>39</v>
@@ -2735,19 +2735,19 @@
         <v>42288</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>33554</v>
+        <v>33618</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>50673</v>
+        <v>50885</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.6067920113604232</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.4814665575162898</v>
+        <v>0.4823866947375582</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.7271111911894307</v>
+        <v>0.7301565729336859</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>141</v>
@@ -2756,19 +2756,19 @@
         <v>150666</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>136267</v>
+        <v>134657</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>165488</v>
+        <v>164059</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.6636074153576523</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.6001850930029345</v>
+        <v>0.593095923285881</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.7288884806702907</v>
+        <v>0.7225985218130622</v>
       </c>
     </row>
     <row r="33">
@@ -2860,19 +2860,19 @@
         <v>6250</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>2814</v>
+        <v>2227</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>14946</v>
+        <v>13068</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.004411263106489915</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.001986405446185522</v>
+        <v>0.001571585950180095</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.01054939439116018</v>
+        <v>0.009224163106861489</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>6</v>
@@ -2881,19 +2881,19 @@
         <v>6176</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>2137</v>
+        <v>2361</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>14111</v>
+        <v>13340</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.006558177441171524</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.002269538553480413</v>
+        <v>0.002507571863854316</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.01498430819594345</v>
+        <v>0.01416628217238113</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>12</v>
@@ -2902,19 +2902,19 @@
         <v>12425</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>6997</v>
+        <v>6193</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>21743</v>
+        <v>21067</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.005268503092226738</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.002966963384308322</v>
+        <v>0.00262599917175472</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.009219227828274175</v>
+        <v>0.008932581896021849</v>
       </c>
     </row>
     <row r="35">
@@ -2931,19 +2931,19 @@
         <v>21970</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>13381</v>
+        <v>14516</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>33345</v>
+        <v>33906</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.01550746696001938</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.009444943829404168</v>
+        <v>0.01024603868156885</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.02353628042654027</v>
+        <v>0.02393248549749953</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>19</v>
@@ -2952,19 +2952,19 @@
         <v>20388</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>11998</v>
+        <v>12727</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>31184</v>
+        <v>30811</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.02165066108563212</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.01274105480257683</v>
+        <v>0.01351521715258878</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.0331149813828016</v>
+        <v>0.03271807151534687</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>40</v>
@@ -2973,19 +2973,19 @@
         <v>42358</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>30476</v>
+        <v>30668</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>57462</v>
+        <v>57183</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.01796037882499129</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.01292194309645255</v>
+        <v>0.01300374039719129</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.02436443731269863</v>
+        <v>0.02424621161020534</v>
       </c>
     </row>
     <row r="36">
@@ -3002,19 +3002,19 @@
         <v>163687</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>139945</v>
+        <v>138692</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>189284</v>
+        <v>188755</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1155380552330574</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.09878008446042741</v>
+        <v>0.09789550270961174</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1336054484538195</v>
+        <v>0.1332320334069675</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>131</v>
@@ -3023,19 +3023,19 @@
         <v>141189</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>119514</v>
+        <v>119972</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>165365</v>
+        <v>164439</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1499302716723946</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1269131669484508</v>
+        <v>0.1273996970548668</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1756032097233701</v>
+        <v>0.1746197492397654</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>286</v>
@@ -3044,19 +3044,19 @@
         <v>304876</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>271393</v>
+        <v>271093</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>338773</v>
+        <v>339090</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1292705002839157</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1150736033266726</v>
+        <v>0.1149460317373677</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1436433765730267</v>
+        <v>0.1437774790603094</v>
       </c>
     </row>
     <row r="37">
@@ -3073,19 +3073,19 @@
         <v>313553</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>280873</v>
+        <v>279831</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>346097</v>
+        <v>344116</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2213208890153444</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1982534421902478</v>
+        <v>0.1975180626571524</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2442920612165284</v>
+        <v>0.2428932362066376</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>203</v>
@@ -3094,19 +3094,19 @@
         <v>215608</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>189306</v>
+        <v>192185</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>241130</v>
+        <v>246225</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2289569856185094</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.201026871844461</v>
+        <v>0.204083445220932</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.256059348419646</v>
+        <v>0.2614699015462567</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>502</v>
@@ -3115,19 +3115,19 @@
         <v>529161</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>489476</v>
+        <v>487342</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>575306</v>
+        <v>571781</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.224369900909968</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2075428760161033</v>
+        <v>0.2066378840562511</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2439356068377508</v>
+        <v>0.242441127654346</v>
       </c>
     </row>
     <row r="38">
@@ -3144,19 +3144,19 @@
         <v>911276</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>877366</v>
+        <v>872423</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>950833</v>
+        <v>945781</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.6432223256850889</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.6192869423804315</v>
+        <v>0.6157977430654064</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.6711431776395164</v>
+        <v>0.6675772524119947</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>511</v>
@@ -3165,19 +3165,19 @@
         <v>558336</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>527792</v>
+        <v>528478</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>593975</v>
+        <v>591158</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.5929039041822923</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.5604686406199786</v>
+        <v>0.5611972013681145</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.6307493525006511</v>
+        <v>0.6277584781102034</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>1360</v>
@@ -3186,19 +3186,19 @@
         <v>1469612</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>1420302</v>
+        <v>1421163</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>1517304</v>
+        <v>1522017</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.6231307168888982</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.6022228177240259</v>
+        <v>0.6025876705427169</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.6433525490962148</v>
+        <v>0.6453508629767523</v>
       </c>
     </row>
     <row r="39">
@@ -3547,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5536</v>
+        <v>5471</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01181598260976794</v>
@@ -3556,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06027377619873397</v>
+        <v>0.05956365757845113</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1</v>
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>5412</v>
+        <v>5748</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.006348440960983313</v>
@@ -3577,7 +3577,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03165721628316179</v>
+        <v>0.03362088933329349</v>
       </c>
     </row>
     <row r="5">
@@ -3597,7 +3597,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6838</v>
+        <v>6341</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02648657485835169</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.08644158753721484</v>
+        <v>0.08015457968641369</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>3</v>
@@ -3615,19 +3615,19 @@
         <v>2785</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0</v>
+        <v>886</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>7388</v>
+        <v>7517</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03032456035649649</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0</v>
+        <v>0.009648417534242783</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.08043393358673603</v>
+        <v>0.08183544540030961</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>5</v>
@@ -3636,19 +3636,19 @@
         <v>4881</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1861</v>
+        <v>1895</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>10756</v>
+        <v>11055</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02854863140910696</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01088734713738109</v>
+        <v>0.01108417339809109</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.06291554880133436</v>
+        <v>0.06466297724136674</v>
       </c>
     </row>
     <row r="6">
@@ -3665,19 +3665,19 @@
         <v>14764</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8235</v>
+        <v>8014</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>23365</v>
+        <v>23506</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1866322110274361</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1041008783103745</v>
+        <v>0.1012993607258478</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2953477276283846</v>
+        <v>0.2971351280675348</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>21</v>
@@ -3686,19 +3686,19 @@
         <v>21200</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>14537</v>
+        <v>14583</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>29870</v>
+        <v>29910</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2307945797742104</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1582597078056792</v>
+        <v>0.1587649375867126</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3251888917671156</v>
+        <v>0.3256180791750601</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>34</v>
@@ -3707,19 +3707,19 @@
         <v>35964</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>27414</v>
+        <v>26349</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>49154</v>
+        <v>47863</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.210359580975857</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1603481966527729</v>
+        <v>0.1541205224613766</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2875110216736521</v>
+        <v>0.2799623625515719</v>
       </c>
     </row>
     <row r="7">
@@ -3736,19 +3736,19 @@
         <v>25169</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>17399</v>
+        <v>17392</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>34601</v>
+        <v>34445</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3181527643659419</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2199426649662983</v>
+        <v>0.219845162548178</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4373883894945872</v>
+        <v>0.4354059428058939</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>28</v>
@@ -3757,19 +3757,19 @@
         <v>26631</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>18675</v>
+        <v>18615</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>35988</v>
+        <v>35778</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2899270965434154</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2033135940290798</v>
+        <v>0.2026575006375368</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3917896883725234</v>
+        <v>0.3895046104722168</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>52</v>
@@ -3778,19 +3778,19 @@
         <v>51800</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>39411</v>
+        <v>39786</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>63777</v>
+        <v>63471</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3029877974162186</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2305215854217796</v>
+        <v>0.2327136898518589</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3730410302924787</v>
+        <v>0.3712519237172066</v>
       </c>
     </row>
     <row r="8">
@@ -3807,19 +3807,19 @@
         <v>37081</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>27803</v>
+        <v>27921</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>45561</v>
+        <v>46371</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4687284497482703</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3514466071621758</v>
+        <v>0.3529478376781083</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5759211865207132</v>
+        <v>0.5861693915205067</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>40</v>
@@ -3828,19 +3828,19 @@
         <v>40153</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>31480</v>
+        <v>30601</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>49829</v>
+        <v>49064</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4371377807161098</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3427152952878099</v>
+        <v>0.3331482904090005</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5424747302470629</v>
+        <v>0.5341438830278834</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>75</v>
@@ -3849,19 +3849,19 @@
         <v>77234</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>63282</v>
+        <v>62874</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>90137</v>
+        <v>89613</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4517555492378341</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3701464549769837</v>
+        <v>0.3677622301770703</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5272257503354871</v>
+        <v>0.524163727538896</v>
       </c>
     </row>
     <row r="9">
@@ -3953,19 +3953,19 @@
         <v>6512</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2416</v>
+        <v>2913</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>13613</v>
+        <v>13570</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01892095584521944</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.007020356035488905</v>
+        <v>0.008463289803615078</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03955201626237416</v>
+        <v>0.03942775213529433</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -3974,19 +3974,19 @@
         <v>2955</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>7887</v>
+        <v>7970</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01079586738991808</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.003442136326881267</v>
+        <v>0.00343964064755491</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02881554469795189</v>
+        <v>0.02911626229631264</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>9</v>
@@ -3995,19 +3995,19 @@
         <v>9467</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>4947</v>
+        <v>4418</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>17640</v>
+        <v>17056</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01532172741361048</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.00800638901334674</v>
+        <v>0.007150577092762466</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0285481724436254</v>
+        <v>0.02760290685027381</v>
       </c>
     </row>
     <row r="11">
@@ -4024,19 +4024,19 @@
         <v>16848</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>10165</v>
+        <v>10118</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>26777</v>
+        <v>25408</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.04894929851318418</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02953237646476095</v>
+        <v>0.02939670552355792</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.0777968280324513</v>
+        <v>0.07382086633674477</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>9</v>
@@ -4045,19 +4045,19 @@
         <v>8319</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>3723</v>
+        <v>4462</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>15083</v>
+        <v>14782</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.03039258828014925</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01360219668102749</v>
+        <v>0.01630081503656357</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.05510607074005094</v>
+        <v>0.05400648659386343</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>25</v>
@@ -4066,19 +4066,19 @@
         <v>25167</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>16633</v>
+        <v>16203</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>35692</v>
+        <v>36414</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.04072910011961592</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02691890045497964</v>
+        <v>0.02622236001809384</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.05776347985354931</v>
+        <v>0.05893211306780791</v>
       </c>
     </row>
     <row r="12">
@@ -4095,19 +4095,19 @@
         <v>59734</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>45988</v>
+        <v>47148</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>75908</v>
+        <v>76941</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1735524899170404</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1336147651026305</v>
+        <v>0.1369847326623546</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2205433086763116</v>
+        <v>0.2235451139975008</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>43</v>
@@ -4116,19 +4116,19 @@
         <v>41784</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>31665</v>
+        <v>31434</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>55239</v>
+        <v>55419</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1526561263755234</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1156867263755468</v>
+        <v>0.1148399860832347</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.201810303064654</v>
+        <v>0.2024694934556074</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>97</v>
@@ -4137,19 +4137,19 @@
         <v>101519</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>83643</v>
+        <v>84056</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>121322</v>
+        <v>120838</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.164295878596484</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.135366266116186</v>
+        <v>0.1360341911065587</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1963444288427579</v>
+        <v>0.1955614855978217</v>
       </c>
     </row>
     <row r="13">
@@ -4166,19 +4166,19 @@
         <v>106442</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>90225</v>
+        <v>89507</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>125385</v>
+        <v>123916</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3092571597880551</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2621412999889312</v>
+        <v>0.2600554991498631</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3642955211394058</v>
+        <v>0.3600262264966443</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>88</v>
@@ -4187,19 +4187,19 @@
         <v>82897</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>68363</v>
+        <v>67907</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>97939</v>
+        <v>97026</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3028578235725292</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2497575803313326</v>
+        <v>0.2480931648252748</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3578126921780787</v>
+        <v>0.3544752949288615</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>191</v>
@@ -4208,19 +4208,19 @@
         <v>189339</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>164929</v>
+        <v>167385</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>214077</v>
+        <v>211478</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3064224001448764</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.26691772747811</v>
+        <v>0.2708922577431547</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3464570552207101</v>
+        <v>0.3422514644800549</v>
       </c>
     </row>
     <row r="14">
@@ -4237,19 +4237,19 @@
         <v>154649</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>136120</v>
+        <v>133415</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>173837</v>
+        <v>170567</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4493200959365009</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3954850002446552</v>
+        <v>0.3876254102588323</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5050683288840923</v>
+        <v>0.4955684797242849</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>140</v>
@@ -4258,19 +4258,19 @@
         <v>137761</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>121384</v>
+        <v>121546</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>153175</v>
+        <v>153985</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5032975943818799</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.443468693465036</v>
+        <v>0.4440574588398351</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5596132885915296</v>
+        <v>0.5625708701408129</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>290</v>
@@ -4279,19 +4279,19 @@
         <v>292410</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>266996</v>
+        <v>266930</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>318352</v>
+        <v>317353</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4732308937254132</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4321000961484514</v>
+        <v>0.4319939150072754</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5152147883084867</v>
+        <v>0.5135978652482815</v>
       </c>
     </row>
     <row r="15">
@@ -4383,19 +4383,19 @@
         <v>5057</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1508</v>
+        <v>1334</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>12702</v>
+        <v>13062</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01100266771182524</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.003281995383287265</v>
+        <v>0.00290230961625356</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02763738653527863</v>
+        <v>0.0284218192742368</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>5</v>
@@ -4404,19 +4404,19 @@
         <v>4892</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1870</v>
+        <v>1839</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>10748</v>
+        <v>11322</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01541169960685559</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.005889961173947383</v>
+        <v>0.005793478579500614</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03386187513803218</v>
+        <v>0.03566855722594454</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>9</v>
@@ -4425,19 +4425,19 @@
         <v>9949</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4966</v>
+        <v>4756</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>18694</v>
+        <v>17963</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01280380598164513</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.006391787260456573</v>
+        <v>0.006121202103616275</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02405928901296521</v>
+        <v>0.0231181621102229</v>
       </c>
     </row>
     <row r="17">
@@ -4454,19 +4454,19 @@
         <v>15568</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>9219</v>
+        <v>8944</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>25014</v>
+        <v>24843</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.03387457278218384</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02005831346077587</v>
+        <v>0.01946138505594155</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.05442645228925855</v>
+        <v>0.05405588859004187</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>12</v>
@@ -4475,19 +4475,19 @@
         <v>11768</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>6542</v>
+        <v>6452</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>20294</v>
+        <v>19572</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.03707310312834254</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0206108290568635</v>
+        <v>0.02032662499894233</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.06393669664597004</v>
+        <v>0.06166127300016969</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>27</v>
@@ -4496,19 +4496,19 @@
         <v>27336</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>17987</v>
+        <v>17748</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>39449</v>
+        <v>38750</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.03518120778751012</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.0231491729329302</v>
+        <v>0.02284142208630211</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.05077080177018021</v>
+        <v>0.04987156003419308</v>
       </c>
     </row>
     <row r="18">
@@ -4525,19 +4525,19 @@
         <v>63670</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>49497</v>
+        <v>48676</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>78888</v>
+        <v>79686</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1385367934082498</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.107698857536345</v>
+        <v>0.1059118018563204</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1716496445390509</v>
+        <v>0.1733858097403742</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>40</v>
@@ -4546,19 +4546,19 @@
         <v>39204</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>29082</v>
+        <v>28308</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>51380</v>
+        <v>51987</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1235094087373532</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.09162153091348195</v>
+        <v>0.08918442392921921</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1618706599681515</v>
+        <v>0.1637833894432179</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>97</v>
@@ -4567,19 +4567,19 @@
         <v>102873</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>83474</v>
+        <v>84586</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>121380</v>
+        <v>121887</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1323979406463624</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1074303872664747</v>
+        <v>0.1088616080301093</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1562162635866639</v>
+        <v>0.1568684980044522</v>
       </c>
     </row>
     <row r="19">
@@ -4596,19 +4596,19 @@
         <v>129413</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>109997</v>
+        <v>112416</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>149532</v>
+        <v>150579</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2815839539299355</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.239337839094845</v>
+        <v>0.2446022244345489</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3253614829592433</v>
+        <v>0.3276380822401215</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>85</v>
@@ -4617,19 +4617,19 @@
         <v>81855</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>66911</v>
+        <v>67756</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>97500</v>
+        <v>98866</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.257881026938454</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2108019485924787</v>
+        <v>0.2134627365214906</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3071708212123134</v>
+        <v>0.3114738729515551</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>209</v>
@@ -4638,19 +4638,19 @@
         <v>211267</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>187088</v>
+        <v>184717</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>238474</v>
+        <v>233656</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2719010462242269</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2407816234799808</v>
+        <v>0.2377310587871466</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3069164130025395</v>
+        <v>0.3007153400656924</v>
       </c>
     </row>
     <row r="20">
@@ -4667,19 +4667,19 @@
         <v>245881</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>224762</v>
+        <v>222954</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>268920</v>
+        <v>266077</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5350020121678056</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4890501907171792</v>
+        <v>0.4851174947479713</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5851333912750122</v>
+        <v>0.5789460874074156</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>177</v>
@@ -4688,19 +4688,19 @@
         <v>179696</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>162204</v>
+        <v>162220</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>196820</v>
+        <v>198401</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5661247615889946</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5110179501418434</v>
+        <v>0.5110688512857489</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6200726598028208</v>
+        <v>0.6250535510363858</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>414</v>
@@ -4709,19 +4709,19 @@
         <v>425576</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>397207</v>
+        <v>399293</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>452803</v>
+        <v>455257</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5477159993602554</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5112050482183103</v>
+        <v>0.5138905248772627</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5827577028511529</v>
+        <v>0.5859151519103131</v>
       </c>
     </row>
     <row r="21">
@@ -4813,19 +4813,19 @@
         <v>7463</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3215</v>
+        <v>3116</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>15811</v>
+        <v>14700</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02029367821034658</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.008742961323938495</v>
+        <v>0.008472749271321196</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04299584251690492</v>
+        <v>0.03997461436610886</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>5</v>
@@ -4834,19 +4834,19 @@
         <v>5244</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2032</v>
+        <v>2067</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>11661</v>
+        <v>12552</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02156814625844253</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.008356359898775634</v>
+        <v>0.008503689608750403</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04796329346981548</v>
+        <v>0.0516288327138286</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>12</v>
@@ -4855,19 +4855,19 @@
         <v>12706</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>7196</v>
+        <v>6597</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>21263</v>
+        <v>21523</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0208009190914494</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01178062382287949</v>
+        <v>0.01079945315702733</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03480934852904074</v>
+        <v>0.03523546368956237</v>
       </c>
     </row>
     <row r="23">
@@ -4884,19 +4884,19 @@
         <v>12834</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>5766</v>
+        <v>5990</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>22172</v>
+        <v>22561</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.03490077304436506</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01568067036604553</v>
+        <v>0.01628918676441283</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.06029331807468366</v>
+        <v>0.06135195763072052</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>8</v>
@@ -4905,19 +4905,19 @@
         <v>8862</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>4086</v>
+        <v>4121</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>16460</v>
+        <v>17699</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.0364516700569003</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.01680744015315258</v>
+        <v>0.01694959829905839</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.06770559035319887</v>
+        <v>0.07279992001994876</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>18</v>
@@ -4926,19 +4926,19 @@
         <v>21696</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>12897</v>
+        <v>12522</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>33746</v>
+        <v>33072</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.03551803321680595</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.02111394467286356</v>
+        <v>0.0204996145528122</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.05524450986747535</v>
+        <v>0.05414154879418432</v>
       </c>
     </row>
     <row r="24">
@@ -4955,19 +4955,19 @@
         <v>46839</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>35617</v>
+        <v>35288</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>61350</v>
+        <v>62582</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1273736416451628</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.0968565290433472</v>
+        <v>0.09596121355540019</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1668340232101069</v>
+        <v>0.1701849626964107</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>34</v>
@@ -4976,19 +4976,19 @@
         <v>36679</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>26714</v>
+        <v>26529</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>49928</v>
+        <v>49048</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1508686129572345</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1098797039103224</v>
+        <v>0.1091190045983614</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2053672632964358</v>
+        <v>0.2017439574521063</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>77</v>
@@ -4997,19 +4997,19 @@
         <v>83518</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>66991</v>
+        <v>67877</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>101940</v>
+        <v>101991</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1367246881210832</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1096695861926607</v>
+        <v>0.1111191473128037</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1668834725984979</v>
+        <v>0.1669673979446418</v>
       </c>
     </row>
     <row r="25">
@@ -5026,19 +5026,19 @@
         <v>103407</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>84972</v>
+        <v>87229</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>121002</v>
+        <v>123842</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2812049668205188</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2310719316605868</v>
+        <v>0.2372096650048756</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3290539452735571</v>
+        <v>0.3367764603242394</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>59</v>
@@ -5047,19 +5047,19 @@
         <v>65985</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>52405</v>
+        <v>52551</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>83015</v>
+        <v>78637</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2714132427246128</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2155535835446999</v>
+        <v>0.2161531946494771</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3414584517516046</v>
+        <v>0.323451829127934</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>155</v>
@@ -5068,19 +5068,19 @@
         <v>169392</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>147188</v>
+        <v>148142</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>195404</v>
+        <v>193365</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2773078406702451</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2409574669601972</v>
+        <v>0.2425188988475087</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3198899783545907</v>
+        <v>0.3165520898364848</v>
       </c>
     </row>
     <row r="26">
@@ -5097,19 +5097,19 @@
         <v>197186</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>177688</v>
+        <v>176574</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>219962</v>
+        <v>217209</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5362269402796067</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4832062372270307</v>
+        <v>0.4801768460247762</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5981652710575589</v>
+        <v>0.5906787719563658</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>117</v>
@@ -5118,19 +5118,19 @@
         <v>126348</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>109857</v>
+        <v>109508</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>141649</v>
+        <v>142043</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.5196983280028099</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4518668720858284</v>
+        <v>0.4504335054139275</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5826328342984453</v>
+        <v>0.584255828471191</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>292</v>
@@ -5139,19 +5139,19 @@
         <v>323534</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>297440</v>
+        <v>298702</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>349397</v>
+        <v>347472</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5296485189004164</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4869312876053295</v>
+        <v>0.4889975122012105</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5719886693678823</v>
+        <v>0.5688375391503715</v>
       </c>
     </row>
     <row r="27">
@@ -5243,19 +5243,19 @@
         <v>4397</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1159</v>
+        <v>1127</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>11434</v>
+        <v>10113</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02653436665920522</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.006995012401472161</v>
+        <v>0.006800255610977027</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.06899077384211158</v>
+        <v>0.06101992056883369</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2</v>
@@ -5267,7 +5267,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>7327</v>
+        <v>6535</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01968042858186972</v>
@@ -5276,7 +5276,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.06920102846888836</v>
+        <v>0.06172213014374212</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>6</v>
@@ -5285,19 +5285,19 @@
         <v>6481</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2205</v>
+        <v>2423</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>13129</v>
+        <v>12779</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.02386252206392309</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.008118771867454447</v>
+        <v>0.008920496661240432</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.0483376967226633</v>
+        <v>0.04705061692617512</v>
       </c>
     </row>
     <row r="29">
@@ -5314,19 +5314,19 @@
         <v>7427</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3455</v>
+        <v>2495</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>16780</v>
+        <v>15350</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.0448164522465394</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02084613461860221</v>
+        <v>0.0150540966072498</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1012512799809041</v>
+        <v>0.09262394499230658</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>4</v>
@@ -5335,19 +5335,19 @@
         <v>4348</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1153</v>
+        <v>1108</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>10257</v>
+        <v>9980</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.04106209589208126</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.01089172600625964</v>
+        <v>0.01046898620524726</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.09687220375021961</v>
+        <v>0.09425389256679091</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>10</v>
@@ -5356,19 +5356,19 @@
         <v>11775</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6027</v>
+        <v>5710</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>21361</v>
+        <v>20631</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.04335290579758728</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.02218910241373812</v>
+        <v>0.02102292618833626</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.07864782534374028</v>
+        <v>0.07595873442998204</v>
       </c>
     </row>
     <row r="30">
@@ -5385,19 +5385,19 @@
         <v>28183</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>18861</v>
+        <v>18255</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>40684</v>
+        <v>39499</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1700549625307655</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1138064616703335</v>
+        <v>0.1101512707464727</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2454910405209562</v>
+        <v>0.2383378897654478</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>18</v>
@@ -5406,19 +5406,19 @@
         <v>20684</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>12753</v>
+        <v>12670</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>30256</v>
+        <v>29897</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1953543923887797</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1204493231330114</v>
+        <v>0.1196659810347247</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2857571788993169</v>
+        <v>0.2823692041218575</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>42</v>
@@ -5427,19 +5427,19 @@
         <v>48866</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>36240</v>
+        <v>36256</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>63209</v>
+        <v>64808</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1799173429852053</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1334283928310496</v>
+        <v>0.13348798496855</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2327251885468563</v>
+        <v>0.2386098838690881</v>
       </c>
     </row>
     <row r="31">
@@ -5456,19 +5456,19 @@
         <v>36994</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>26420</v>
+        <v>26379</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>48590</v>
+        <v>48925</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2232260271665171</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1594196888222555</v>
+        <v>0.1591734469377256</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2931921382176942</v>
+        <v>0.2952156944049245</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>27</v>
@@ -5477,19 +5477,19 @@
         <v>31043</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>21074</v>
+        <v>22252</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>41597</v>
+        <v>41671</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2931977254659656</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1990422617371064</v>
+        <v>0.210169004150584</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3928704177320344</v>
+        <v>0.3935685583823074</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>60</v>
@@ -5498,19 +5498,19 @@
         <v>68038</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>54494</v>
+        <v>53409</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>85969</v>
+        <v>83872</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2505028280092775</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2006377662302715</v>
+        <v>0.1966419823207245</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3165204994557347</v>
+        <v>0.3087996857858198</v>
       </c>
     </row>
     <row r="32">
@@ -5527,19 +5527,19 @@
         <v>88724</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>76088</v>
+        <v>74698</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>101763</v>
+        <v>101029</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.5353681913969728</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.4591208651974786</v>
+        <v>0.4507317709453307</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.6140460857180577</v>
+        <v>0.6096141341798719</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>39</v>
@@ -5548,19 +5548,19 @@
         <v>47720</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>37090</v>
+        <v>36226</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>59620</v>
+        <v>59165</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.4507053576713037</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.3503021967312676</v>
+        <v>0.3421412667387844</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.5630963041544694</v>
+        <v>0.5587965686727925</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>118</v>
@@ -5569,19 +5569,19 @@
         <v>136445</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>118152</v>
+        <v>120750</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>153473</v>
+        <v>153891</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.5023644011440067</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.4350158893401244</v>
+        <v>0.4445780270346236</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.5650578780260092</v>
+        <v>0.5665990112368976</v>
       </c>
     </row>
     <row r="33">
@@ -5673,19 +5673,19 @@
         <v>23429</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>15125</v>
+        <v>14682</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>35566</v>
+        <v>35077</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.01654197295969511</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.01067903491828407</v>
+        <v>0.0103664045031098</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.02511111341180397</v>
+        <v>0.0247660446904099</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>16</v>
@@ -5694,19 +5694,19 @@
         <v>16260</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>9304</v>
+        <v>9742</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>25895</v>
+        <v>24580</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.01575569590313318</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.00901614293030599</v>
+        <v>0.009439703115118913</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.02509242740835852</v>
+        <v>0.02381830527484279</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>37</v>
@@ -5715,19 +5715,19 @@
         <v>39689</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>28013</v>
+        <v>28203</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>53316</v>
+        <v>53334</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.01621055222457073</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.01144160381928483</v>
+        <v>0.01151918608136908</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.02177652967074947</v>
+        <v>0.0217839961005769</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>54773</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>41720</v>
+        <v>40193</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>73396</v>
+        <v>70857</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.03867199103263546</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.02945646018729462</v>
+        <v>0.02837808057235928</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.05182072510695141</v>
+        <v>0.05002835522511006</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>36</v>
@@ -5765,19 +5765,19 @@
         <v>36082</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>25884</v>
+        <v>25678</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>50198</v>
+        <v>50015</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.03496339061530682</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.02508168913172517</v>
+        <v>0.02488201188460338</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.04864266656303666</v>
+        <v>0.04846514936217312</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>85</v>
@@ -5786,19 +5786,19 @@
         <v>90854</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>72340</v>
+        <v>75129</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>110759</v>
+        <v>114418</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.03710879258199262</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.02954666198836458</v>
+        <v>0.0306858829642952</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.04523888855070249</v>
+        <v>0.04673335427502826</v>
       </c>
     </row>
     <row r="36">
@@ -5815,19 +5815,19 @@
         <v>213190</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>185946</v>
+        <v>184637</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>244397</v>
+        <v>242996</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1505219835896045</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1312866820320643</v>
+        <v>0.1303625132928321</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.172555605494113</v>
+        <v>0.1715665204317025</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>156</v>
@@ -5836,19 +5836,19 @@
         <v>159550</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>138951</v>
+        <v>137477</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>186140</v>
+        <v>184567</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1546058641526799</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1346448257776672</v>
+        <v>0.1332167496326551</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1803708896355655</v>
+        <v>0.1788468546230602</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>347</v>
@@ -5857,19 +5857,19 @@
         <v>372740</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>336180</v>
+        <v>337926</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>410289</v>
+        <v>409839</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1522433649870127</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1373104994410357</v>
+        <v>0.1380238470850372</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1675801130001801</v>
+        <v>0.1673963453610801</v>
       </c>
     </row>
     <row r="37">
@@ -5886,19 +5886,19 @@
         <v>401425</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>368063</v>
+        <v>366063</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>436882</v>
+        <v>435756</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2834245043342091</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2598699114525261</v>
+        <v>0.2584573819697791</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.3084588328220446</v>
+        <v>0.3076640645675069</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>287</v>
@@ -5907,19 +5907,19 @@
         <v>288412</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>257647</v>
+        <v>257754</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>314710</v>
+        <v>316843</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2794741276374059</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.249662228613397</v>
+        <v>0.2497664049842475</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.3049566196268461</v>
+        <v>0.3070240367039641</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>667</v>
@@ -5928,19 +5928,19 @@
         <v>689837</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>641750</v>
+        <v>649905</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>729782</v>
+        <v>735294</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.281759395657889</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2621186674445151</v>
+        <v>0.2654493834940932</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2980746885362124</v>
+        <v>0.3003261110848855</v>
       </c>
     </row>
     <row r="38">
@@ -5957,19 +5957,19 @@
         <v>723521</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>686541</v>
+        <v>686296</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>761868</v>
+        <v>761088</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.5108395480838558</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.4847303135405702</v>
+        <v>0.4845567371132194</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.5379146856864132</v>
+        <v>0.5373639682265967</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>513</v>
@@ -5978,19 +5978,19 @@
         <v>531678</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>501107</v>
+        <v>499365</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>566751</v>
+        <v>563476</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.5152009216914741</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.4855773087789723</v>
+        <v>0.48388885061366</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.5491868493683983</v>
+        <v>0.5460136689357471</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>1189</v>
@@ -5999,19 +5999,19 @@
         <v>1255199</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>1206942</v>
+        <v>1204372</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>1305898</v>
+        <v>1302400</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.512677894548535</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.4929676755342284</v>
+        <v>0.4919183290307537</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.5333859492551568</v>
+        <v>0.5319569551611644</v>
       </c>
     </row>
     <row r="39">
